--- a/data/expected_death_70_2020.xlsx
+++ b/data/expected_death_70_2020.xlsx
@@ -1595,7 +1595,7 @@
         <v>275.958851884788</v>
       </c>
       <c r="I2" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J2" t="n">
         <v>384</v>
@@ -1627,10 +1627,10 @@
         <v>259.363099638826</v>
       </c>
       <c r="I3" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J3" t="n">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4">
@@ -1659,10 +1659,10 @@
         <v>266.054712099598</v>
       </c>
       <c r="I4" t="n">
-        <v>167</v>
+        <v>167.975</v>
       </c>
       <c r="J4" t="n">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5">
@@ -1691,10 +1691,10 @@
         <v>173.233903230288</v>
       </c>
       <c r="I5" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J5" t="n">
-        <v>262</v>
+        <v>262.025</v>
       </c>
     </row>
     <row r="6">
@@ -1723,10 +1723,10 @@
         <v>145.054004360884</v>
       </c>
       <c r="I6" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J6" t="n">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7">
@@ -1755,7 +1755,7 @@
         <v>168.85607597609</v>
       </c>
       <c r="I7" t="n">
-        <v>107.975</v>
+        <v>110</v>
       </c>
       <c r="J7" t="n">
         <v>216.025</v>
@@ -1787,10 +1787,10 @@
         <v>764.233114273634</v>
       </c>
       <c r="I8" t="n">
-        <v>619.925</v>
+        <v>621.975</v>
       </c>
       <c r="J8" t="n">
-        <v>986</v>
+        <v>984.025</v>
       </c>
     </row>
     <row r="9">
@@ -1819,10 +1819,10 @@
         <v>776.854613690122</v>
       </c>
       <c r="I9" t="n">
-        <v>596.95</v>
+        <v>604.925</v>
       </c>
       <c r="J9" t="n">
-        <v>876.05</v>
+        <v>885.05</v>
       </c>
     </row>
     <row r="10">
@@ -1851,10 +1851,10 @@
         <v>789.973890716346</v>
       </c>
       <c r="I10" t="n">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="J10" t="n">
-        <v>942</v>
+        <v>945.075</v>
       </c>
     </row>
     <row r="11">
@@ -1883,10 +1883,10 @@
         <v>378.57098483636</v>
       </c>
       <c r="I11" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J11" t="n">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12">
@@ -1915,10 +1915,10 @@
         <v>380.817059083126</v>
       </c>
       <c r="I12" t="n">
-        <v>247</v>
+        <v>251.95</v>
       </c>
       <c r="J12" t="n">
-        <v>449</v>
+        <v>456.025</v>
       </c>
     </row>
     <row r="13">
@@ -1947,10 +1947,10 @@
         <v>426.093659908409</v>
       </c>
       <c r="I13" t="n">
-        <v>373.95</v>
+        <v>376</v>
       </c>
       <c r="J13" t="n">
-        <v>490</v>
+        <v>484.025</v>
       </c>
     </row>
     <row r="14">
@@ -1979,10 +1979,10 @@
         <v>573.104320708983</v>
       </c>
       <c r="I14" t="n">
-        <v>511.975</v>
+        <v>507.975</v>
       </c>
       <c r="J14" t="n">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15">
@@ -2011,10 +2011,10 @@
         <v>547.499951292041</v>
       </c>
       <c r="I15" t="n">
-        <v>492.975</v>
+        <v>488</v>
       </c>
       <c r="J15" t="n">
-        <v>677.025</v>
+        <v>686.075</v>
       </c>
     </row>
     <row r="16">
@@ -2043,10 +2043,10 @@
         <v>580.28763505203</v>
       </c>
       <c r="I16" t="n">
-        <v>482.975</v>
+        <v>482</v>
       </c>
       <c r="J16" t="n">
-        <v>654.025</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17">
@@ -2075,10 +2075,10 @@
         <v>821.95621064562</v>
       </c>
       <c r="I17" t="n">
-        <v>742.95</v>
+        <v>737.975</v>
       </c>
       <c r="J17" t="n">
-        <v>1033</v>
+        <v>1003.05</v>
       </c>
     </row>
     <row r="18">
@@ -2107,10 +2107,10 @@
         <v>794.79596367939</v>
       </c>
       <c r="I18" t="n">
-        <v>733.95</v>
+        <v>734.975</v>
       </c>
       <c r="J18" t="n">
-        <v>862.05</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19">
@@ -2139,7 +2139,7 @@
         <v>821.478924293815</v>
       </c>
       <c r="I19" t="n">
-        <v>754</v>
+        <v>754.975</v>
       </c>
       <c r="J19" t="n">
         <v>886</v>
@@ -2171,10 +2171,10 @@
         <v>795.182972249006</v>
       </c>
       <c r="I20" t="n">
-        <v>736.975</v>
+        <v>731.975</v>
       </c>
       <c r="J20" t="n">
-        <v>874.075</v>
+        <v>877.025</v>
       </c>
     </row>
     <row r="21">
@@ -2203,10 +2203,10 @@
         <v>787.033195751051</v>
       </c>
       <c r="I21" t="n">
-        <v>730</v>
+        <v>729.975</v>
       </c>
       <c r="J21" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="22">
@@ -2235,10 +2235,10 @@
         <v>789.422105331962</v>
       </c>
       <c r="I22" t="n">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J22" t="n">
-        <v>848.025</v>
+        <v>843</v>
       </c>
     </row>
     <row r="23">
@@ -2267,10 +2267,10 @@
         <v>325.067836384363</v>
       </c>
       <c r="I23" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J23" t="n">
-        <v>529.025</v>
+        <v>517.025</v>
       </c>
     </row>
     <row r="24">
@@ -2299,10 +2299,10 @@
         <v>298.934937558229</v>
       </c>
       <c r="I24" t="n">
-        <v>224</v>
+        <v>226.975</v>
       </c>
       <c r="J24" t="n">
-        <v>360</v>
+        <v>357.025</v>
       </c>
     </row>
     <row r="25">
@@ -2331,10 +2331,10 @@
         <v>392.491223924107</v>
       </c>
       <c r="I25" t="n">
-        <v>281</v>
+        <v>285.975</v>
       </c>
       <c r="J25" t="n">
-        <v>489</v>
+        <v>484.025</v>
       </c>
     </row>
     <row r="26">
@@ -2363,10 +2363,10 @@
         <v>659.126874712557</v>
       </c>
       <c r="I26" t="n">
-        <v>596.95</v>
+        <v>588.975</v>
       </c>
       <c r="J26" t="n">
-        <v>843</v>
+        <v>849.025</v>
       </c>
     </row>
     <row r="27">
@@ -2395,10 +2395,10 @@
         <v>651.877964159796</v>
       </c>
       <c r="I27" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J27" t="n">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="28">
@@ -2427,10 +2427,10 @@
         <v>687.034537758295</v>
       </c>
       <c r="I28" t="n">
-        <v>596.95</v>
+        <v>595.975</v>
       </c>
       <c r="J28" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="29">
@@ -2459,10 +2459,10 @@
         <v>993.394104079015</v>
       </c>
       <c r="I29" t="n">
-        <v>796</v>
+        <v>780.975</v>
       </c>
       <c r="J29" t="n">
-        <v>1370.025</v>
+        <v>1397.025</v>
       </c>
     </row>
     <row r="30">
@@ -2491,10 +2491,10 @@
         <v>948.321715197091</v>
       </c>
       <c r="I30" t="n">
-        <v>701.975</v>
+        <v>710.975</v>
       </c>
       <c r="J30" t="n">
-        <v>1109</v>
+        <v>1107.15</v>
       </c>
     </row>
     <row r="31">
@@ -2523,10 +2523,10 @@
         <v>1028.01225942252</v>
       </c>
       <c r="I31" t="n">
-        <v>934</v>
+        <v>930.95</v>
       </c>
       <c r="J31" t="n">
-        <v>1160</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="32">
@@ -2555,10 +2555,10 @@
         <v>3269.739228444</v>
       </c>
       <c r="I32" t="n">
-        <v>2701.9</v>
+        <v>2690.95</v>
       </c>
       <c r="J32" t="n">
-        <v>3759.025</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="33">
@@ -2587,10 +2587,10 @@
         <v>3276.16309640242</v>
       </c>
       <c r="I33" t="n">
-        <v>2487.975</v>
+        <v>2523.925</v>
       </c>
       <c r="J33" t="n">
-        <v>3732.225</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="34">
@@ -2619,10 +2619,10 @@
         <v>3358.55909160526</v>
       </c>
       <c r="I34" t="n">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="J34" t="n">
-        <v>3934.025</v>
+        <v>3961.075</v>
       </c>
     </row>
     <row r="35">
@@ -2651,10 +2651,10 @@
         <v>776.074560064282</v>
       </c>
       <c r="I35" t="n">
-        <v>695.975</v>
+        <v>689</v>
       </c>
       <c r="J35" t="n">
-        <v>1021.025</v>
+        <v>1033.025</v>
       </c>
     </row>
     <row r="36">
@@ -2683,10 +2683,10 @@
         <v>747.600612339492</v>
       </c>
       <c r="I36" t="n">
-        <v>664</v>
+        <v>658.975</v>
       </c>
       <c r="J36" t="n">
-        <v>826</v>
+        <v>820.025</v>
       </c>
     </row>
     <row r="37">
@@ -2715,10 +2715,10 @@
         <v>816.359536318138</v>
       </c>
       <c r="I37" t="n">
-        <v>665.75</v>
+        <v>674.95</v>
       </c>
       <c r="J37" t="n">
-        <v>893.025</v>
+        <v>909</v>
       </c>
     </row>
     <row r="38">
@@ -2747,10 +2747,10 @@
         <v>510.066398351677</v>
       </c>
       <c r="I38" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="J38" t="n">
-        <v>663.05</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39">
@@ -2779,10 +2779,10 @@
         <v>484.260446080809</v>
       </c>
       <c r="I39" t="n">
-        <v>413.975</v>
+        <v>418.975</v>
       </c>
       <c r="J39" t="n">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="40">
@@ -2811,10 +2811,10 @@
         <v>468.92990694893</v>
       </c>
       <c r="I40" t="n">
-        <v>420</v>
+        <v>413.975</v>
       </c>
       <c r="J40" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="41">
@@ -2843,10 +2843,10 @@
         <v>591.9419957253</v>
       </c>
       <c r="I41" t="n">
-        <v>534.975</v>
+        <v>530</v>
       </c>
       <c r="J41" t="n">
-        <v>672.025</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42">
@@ -2875,10 +2875,10 @@
         <v>589.235497938419</v>
       </c>
       <c r="I42" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J42" t="n">
-        <v>674</v>
+        <v>670.025</v>
       </c>
     </row>
     <row r="43">
@@ -2907,10 +2907,10 @@
         <v>660.533938016294</v>
       </c>
       <c r="I43" t="n">
-        <v>486.975</v>
+        <v>490</v>
       </c>
       <c r="J43" t="n">
-        <v>754.025</v>
+        <v>767.025</v>
       </c>
     </row>
     <row r="44">
@@ -2939,10 +2939,10 @@
         <v>735.895904416813</v>
       </c>
       <c r="I44" t="n">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J44" t="n">
-        <v>829.05</v>
+        <v>838</v>
       </c>
     </row>
     <row r="45">
@@ -2974,7 +2974,7 @@
         <v>643.975</v>
       </c>
       <c r="J45" t="n">
-        <v>802.025</v>
+        <v>792.025</v>
       </c>
     </row>
     <row r="46">
@@ -3003,10 +3003,10 @@
         <v>720.728359215333</v>
       </c>
       <c r="I46" t="n">
-        <v>658.975</v>
+        <v>655.975</v>
       </c>
       <c r="J46" t="n">
-        <v>824</v>
+        <v>828.05</v>
       </c>
     </row>
     <row r="47">
@@ -3035,10 +3035,10 @@
         <v>2963.41345348894</v>
       </c>
       <c r="I47" t="n">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="J47" t="n">
-        <v>3672.1</v>
+        <v>3661.05</v>
       </c>
     </row>
     <row r="48">
@@ -3067,10 +3067,10 @@
         <v>2891.41895969283</v>
       </c>
       <c r="I48" t="n">
-        <v>2608.975</v>
+        <v>2613.975</v>
       </c>
       <c r="J48" t="n">
-        <v>3045</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="49">
@@ -3099,10 +3099,10 @@
         <v>3146.19110607189</v>
       </c>
       <c r="I49" t="n">
-        <v>2842.95</v>
+        <v>2838</v>
       </c>
       <c r="J49" t="n">
-        <v>3347</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="50">
@@ -3131,10 +3131,10 @@
         <v>854.028017723508</v>
       </c>
       <c r="I50" t="n">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J50" t="n">
-        <v>1586</v>
+        <v>1578.075</v>
       </c>
     </row>
     <row r="51">
@@ -3163,10 +3163,10 @@
         <v>841.709463609891</v>
       </c>
       <c r="I51" t="n">
-        <v>648.975</v>
+        <v>656.95</v>
       </c>
       <c r="J51" t="n">
-        <v>991.025</v>
+        <v>999</v>
       </c>
     </row>
     <row r="52">
@@ -3195,10 +3195,10 @@
         <v>900.362179570409</v>
       </c>
       <c r="I52" t="n">
-        <v>715.975</v>
+        <v>711.975</v>
       </c>
       <c r="J52" t="n">
-        <v>1091.025</v>
+        <v>1069.025</v>
       </c>
     </row>
     <row r="53">
@@ -3227,10 +3227,10 @@
         <v>116.541853034272</v>
       </c>
       <c r="I53" t="n">
-        <v>85</v>
+        <v>84.975</v>
       </c>
       <c r="J53" t="n">
-        <v>158</v>
+        <v>149.025</v>
       </c>
     </row>
     <row r="54">
@@ -3259,10 +3259,10 @@
         <v>135.962884086516</v>
       </c>
       <c r="I54" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J54" t="n">
-        <v>172</v>
+        <v>174.025</v>
       </c>
     </row>
     <row r="55">
@@ -3291,10 +3291,10 @@
         <v>167.303629165018</v>
       </c>
       <c r="I55" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J55" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56">
@@ -3323,10 +3323,10 @@
         <v>330.91012729095</v>
       </c>
       <c r="I56" t="n">
-        <v>240.95</v>
+        <v>240.975</v>
       </c>
       <c r="J56" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57">
@@ -3355,10 +3355,10 @@
         <v>325.812514551014</v>
       </c>
       <c r="I57" t="n">
-        <v>282</v>
+        <v>274.975</v>
       </c>
       <c r="J57" t="n">
-        <v>389.025</v>
+        <v>393.05</v>
       </c>
     </row>
     <row r="58">
@@ -3387,10 +3387,10 @@
         <v>327.500844615474</v>
       </c>
       <c r="I58" t="n">
-        <v>262</v>
+        <v>264.975</v>
       </c>
       <c r="J58" t="n">
-        <v>390.05</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59">
@@ -3419,10 +3419,10 @@
         <v>407.849557113307</v>
       </c>
       <c r="I59" t="n">
-        <v>365</v>
+        <v>367.975</v>
       </c>
       <c r="J59" t="n">
-        <v>459.05</v>
+        <v>458.025</v>
       </c>
     </row>
     <row r="60">
@@ -3451,10 +3451,10 @@
         <v>400.807463510746</v>
       </c>
       <c r="I60" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J60" t="n">
-        <v>467</v>
+        <v>468.025</v>
       </c>
     </row>
     <row r="61">
@@ -3483,10 +3483,10 @@
         <v>394.033919001153</v>
       </c>
       <c r="I61" t="n">
-        <v>354.975</v>
+        <v>352</v>
       </c>
       <c r="J61" t="n">
-        <v>434</v>
+        <v>433.025</v>
       </c>
     </row>
     <row r="62">
@@ -3515,10 +3515,10 @@
         <v>1248.87315222794</v>
       </c>
       <c r="I62" t="n">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="J62" t="n">
-        <v>1880</v>
+        <v>1900.05</v>
       </c>
     </row>
     <row r="63">
@@ -3547,10 +3547,10 @@
         <v>1271.26901801703</v>
       </c>
       <c r="I63" t="n">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="J63" t="n">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="64">
@@ -3579,10 +3579,10 @@
         <v>1335.1590412333</v>
       </c>
       <c r="I64" t="n">
-        <v>1209.95</v>
+        <v>1216.975</v>
       </c>
       <c r="J64" t="n">
-        <v>1562</v>
+        <v>1586.075</v>
       </c>
     </row>
     <row r="65">
@@ -3611,10 +3611,10 @@
         <v>373.627642466037</v>
       </c>
       <c r="I65" t="n">
-        <v>256.95</v>
+        <v>259</v>
       </c>
       <c r="J65" t="n">
-        <v>462.05</v>
+        <v>465.025</v>
       </c>
     </row>
     <row r="66">
@@ -3643,10 +3643,10 @@
         <v>453.584041153983</v>
       </c>
       <c r="I66" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J66" t="n">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="67">
@@ -3675,10 +3675,10 @@
         <v>466.974130023238</v>
       </c>
       <c r="I67" t="n">
-        <v>402</v>
+        <v>399.975</v>
       </c>
       <c r="J67" t="n">
-        <v>601</v>
+        <v>594.025</v>
       </c>
     </row>
     <row r="68">
@@ -3707,10 +3707,10 @@
         <v>319.864576035502</v>
       </c>
       <c r="I68" t="n">
-        <v>266</v>
+        <v>260.975</v>
       </c>
       <c r="J68" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69">
@@ -3739,10 +3739,10 @@
         <v>357.484973929213</v>
       </c>
       <c r="I69" t="n">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J69" t="n">
-        <v>400.05</v>
+        <v>400.025</v>
       </c>
     </row>
     <row r="70">
@@ -3771,10 +3771,10 @@
         <v>357.292750031668</v>
       </c>
       <c r="I70" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J70" t="n">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71">
@@ -3803,10 +3803,10 @@
         <v>339.539622516433</v>
       </c>
       <c r="I71" t="n">
-        <v>240</v>
+        <v>228.975</v>
       </c>
       <c r="J71" t="n">
-        <v>708.025</v>
+        <v>710</v>
       </c>
     </row>
     <row r="72">
@@ -3835,10 +3835,10 @@
         <v>260.753124759499</v>
       </c>
       <c r="I72" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J72" t="n">
-        <v>378</v>
+        <v>381.025</v>
       </c>
     </row>
     <row r="73">
@@ -3867,10 +3867,10 @@
         <v>281.491897989505</v>
       </c>
       <c r="I73" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J73" t="n">
-        <v>400</v>
+        <v>391.075</v>
       </c>
     </row>
     <row r="74">
@@ -3899,7 +3899,7 @@
         <v>168.485925188993</v>
       </c>
       <c r="I74" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J74" t="n">
         <v>351</v>
@@ -3931,10 +3931,10 @@
         <v>154.451525278526</v>
       </c>
       <c r="I75" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J75" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76">
@@ -3963,10 +3963,10 @@
         <v>172.077764678945</v>
       </c>
       <c r="I76" t="n">
-        <v>141.975</v>
+        <v>139.975</v>
       </c>
       <c r="J76" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77">
@@ -3995,10 +3995,10 @@
         <v>302.428067170735</v>
       </c>
       <c r="I77" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J77" t="n">
-        <v>385.025</v>
+        <v>387.025</v>
       </c>
     </row>
     <row r="78">
@@ -4027,7 +4027,7 @@
         <v>260.958804306424</v>
       </c>
       <c r="I78" t="n">
-        <v>220.95</v>
+        <v>219.975</v>
       </c>
       <c r="J78" t="n">
         <v>329</v>
@@ -4062,7 +4062,7 @@
         <v>198</v>
       </c>
       <c r="J79" t="n">
-        <v>341</v>
+        <v>326.025</v>
       </c>
     </row>
     <row r="80">
@@ -4091,10 +4091,10 @@
         <v>112.893069960118</v>
       </c>
       <c r="I80" t="n">
-        <v>77</v>
+        <v>77.975</v>
       </c>
       <c r="J80" t="n">
-        <v>174.025</v>
+        <v>177.025</v>
       </c>
     </row>
     <row r="81">
@@ -4123,10 +4123,10 @@
         <v>100.905601738711</v>
       </c>
       <c r="I81" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J81" t="n">
-        <v>148</v>
+        <v>140.025</v>
       </c>
     </row>
     <row r="82">
@@ -4155,10 +4155,10 @@
         <v>96.1687083813712</v>
       </c>
       <c r="I82" t="n">
-        <v>74.975</v>
+        <v>73</v>
       </c>
       <c r="J82" t="n">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
@@ -4187,10 +4187,10 @@
         <v>25.89246090637</v>
       </c>
       <c r="I83" t="n">
-        <v>11</v>
+        <v>11.975</v>
       </c>
       <c r="J83" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84">
@@ -4222,7 +4222,7 @@
         <v>5</v>
       </c>
       <c r="J84" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85">
@@ -4251,7 +4251,7 @@
         <v>9.08806904964995</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
         <v>17</v>
@@ -4283,10 +4283,10 @@
         <v>127.501037862791</v>
       </c>
       <c r="I86" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J86" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87">
@@ -4315,7 +4315,7 @@
         <v>164.513923023686</v>
       </c>
       <c r="I87" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J87" t="n">
         <v>233.025</v>
@@ -4347,10 +4347,10 @@
         <v>140.789024389144</v>
       </c>
       <c r="I88" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J88" t="n">
-        <v>318</v>
+        <v>304.075</v>
       </c>
     </row>
     <row r="89">
@@ -4379,10 +4379,10 @@
         <v>72.4899434780223</v>
       </c>
       <c r="I89" t="n">
-        <v>52</v>
+        <v>50.975</v>
       </c>
       <c r="J89" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -4411,10 +4411,10 @@
         <v>76.4575813181049</v>
       </c>
       <c r="I90" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J90" t="n">
-        <v>103</v>
+        <v>103.025</v>
       </c>
     </row>
     <row r="91">
@@ -4446,7 +4446,7 @@
         <v>47</v>
       </c>
       <c r="J91" t="n">
-        <v>124.05</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92">
@@ -4475,10 +4475,10 @@
         <v>220.327997711075</v>
       </c>
       <c r="I92" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J92" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93">
@@ -4507,10 +4507,10 @@
         <v>240.737405976554</v>
       </c>
       <c r="I93" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J93" t="n">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94">
@@ -4539,10 +4539,10 @@
         <v>238.139976948828</v>
       </c>
       <c r="I94" t="n">
-        <v>206.975</v>
+        <v>202</v>
       </c>
       <c r="J94" t="n">
-        <v>297.025</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95">
@@ -4571,10 +4571,10 @@
         <v>332.561142306911</v>
       </c>
       <c r="I95" t="n">
-        <v>280.975</v>
+        <v>281</v>
       </c>
       <c r="J95" t="n">
-        <v>454.025</v>
+        <v>471.025</v>
       </c>
     </row>
     <row r="96">
@@ -4603,10 +4603,10 @@
         <v>304.294496613437</v>
       </c>
       <c r="I96" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J96" t="n">
-        <v>346.05</v>
+        <v>348.025</v>
       </c>
     </row>
     <row r="97">
@@ -4638,7 +4638,7 @@
         <v>246.975</v>
       </c>
       <c r="J97" t="n">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98">
@@ -4667,10 +4667,10 @@
         <v>209.271835879291</v>
       </c>
       <c r="I98" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J98" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99">
@@ -4699,10 +4699,10 @@
         <v>196.276018047554</v>
       </c>
       <c r="I99" t="n">
-        <v>102.975</v>
+        <v>102</v>
       </c>
       <c r="J99" t="n">
-        <v>323</v>
+        <v>309.025</v>
       </c>
     </row>
     <row r="100">
@@ -4731,10 +4731,10 @@
         <v>234.051193835194</v>
       </c>
       <c r="I100" t="n">
-        <v>161</v>
+        <v>160.975</v>
       </c>
       <c r="J100" t="n">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="101">
@@ -4763,10 +4763,10 @@
         <v>281.158058903435</v>
       </c>
       <c r="I101" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J101" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102">
@@ -4795,10 +4795,10 @@
         <v>249.758376877762</v>
       </c>
       <c r="I102" t="n">
-        <v>181</v>
+        <v>182.975</v>
       </c>
       <c r="J102" t="n">
-        <v>367</v>
+        <v>376.025</v>
       </c>
     </row>
     <row r="103">
@@ -4827,10 +4827,10 @@
         <v>269.484485126173</v>
       </c>
       <c r="I103" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J103" t="n">
-        <v>441</v>
+        <v>443.025</v>
       </c>
     </row>
     <row r="104">
@@ -4859,10 +4859,10 @@
         <v>313.56108392815</v>
       </c>
       <c r="I104" t="n">
-        <v>220.975</v>
+        <v>218.975</v>
       </c>
       <c r="J104" t="n">
-        <v>356.025</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105">
@@ -4891,10 +4891,10 @@
         <v>304.791646124223</v>
       </c>
       <c r="I105" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J105" t="n">
-        <v>382.025</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106">
@@ -4923,10 +4923,10 @@
         <v>321.252182314797</v>
       </c>
       <c r="I106" t="n">
-        <v>238.925</v>
+        <v>236</v>
       </c>
       <c r="J106" t="n">
-        <v>388.025</v>
+        <v>383.025</v>
       </c>
     </row>
     <row r="107">
@@ -4955,10 +4955,10 @@
         <v>658.714542153608</v>
       </c>
       <c r="I107" t="n">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J107" t="n">
-        <v>723</v>
+        <v>718.025</v>
       </c>
     </row>
     <row r="108">
@@ -4987,10 +4987,10 @@
         <v>684.044680838208</v>
       </c>
       <c r="I108" t="n">
-        <v>634.95</v>
+        <v>630</v>
       </c>
       <c r="J108" t="n">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="109">
@@ -5019,10 +5019,10 @@
         <v>644.120252297285</v>
       </c>
       <c r="I109" t="n">
-        <v>577</v>
+        <v>574.975</v>
       </c>
       <c r="J109" t="n">
-        <v>782</v>
+        <v>783.025</v>
       </c>
     </row>
     <row r="110">
@@ -5054,7 +5054,7 @@
         <v>107</v>
       </c>
       <c r="J110" t="n">
-        <v>205.025</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111">
@@ -5083,10 +5083,10 @@
         <v>159.562525761747</v>
       </c>
       <c r="I111" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J111" t="n">
-        <v>265</v>
+        <v>254.05</v>
       </c>
     </row>
     <row r="112">
@@ -5115,10 +5115,10 @@
         <v>143.412419776607</v>
       </c>
       <c r="I112" t="n">
-        <v>108</v>
+        <v>105.975</v>
       </c>
       <c r="J112" t="n">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113">
@@ -5147,10 +5147,10 @@
         <v>106.567482343145</v>
       </c>
       <c r="I113" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J113" t="n">
-        <v>170</v>
+        <v>161.025</v>
       </c>
     </row>
     <row r="114">
@@ -5179,10 +5179,10 @@
         <v>123.056916138691</v>
       </c>
       <c r="I114" t="n">
-        <v>91.975</v>
+        <v>90</v>
       </c>
       <c r="J114" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115">
@@ -5211,10 +5211,10 @@
         <v>113.522679896324</v>
       </c>
       <c r="I115" t="n">
-        <v>80</v>
+        <v>81.95</v>
       </c>
       <c r="J115" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
@@ -5243,10 +5243,10 @@
         <v>292.144402279429</v>
       </c>
       <c r="I116" t="n">
-        <v>237.975</v>
+        <v>236</v>
       </c>
       <c r="J116" t="n">
-        <v>335.05</v>
+        <v>333.025</v>
       </c>
     </row>
     <row r="117">
@@ -5275,10 +5275,10 @@
         <v>277.008353510658</v>
       </c>
       <c r="I117" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J117" t="n">
-        <v>348.025</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118">
@@ -5307,10 +5307,10 @@
         <v>243.01454196631</v>
       </c>
       <c r="I118" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J118" t="n">
-        <v>309.025</v>
+        <v>302.025</v>
       </c>
     </row>
     <row r="119">
@@ -5339,10 +5339,10 @@
         <v>514.520641414484</v>
       </c>
       <c r="I119" t="n">
-        <v>449.975</v>
+        <v>449.925</v>
       </c>
       <c r="J119" t="n">
-        <v>587.05</v>
+        <v>592.05</v>
       </c>
     </row>
     <row r="120">
@@ -5371,10 +5371,10 @@
         <v>535.156347849146</v>
       </c>
       <c r="I120" t="n">
-        <v>425.95</v>
+        <v>430</v>
       </c>
       <c r="J120" t="n">
-        <v>592.075</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121">
@@ -5403,10 +5403,10 @@
         <v>554.441232676132</v>
       </c>
       <c r="I121" t="n">
-        <v>507</v>
+        <v>506.975</v>
       </c>
       <c r="J121" t="n">
-        <v>614.075</v>
+        <v>609</v>
       </c>
     </row>
     <row r="122">
@@ -5438,7 +5438,7 @@
         <v>167</v>
       </c>
       <c r="J122" t="n">
-        <v>238</v>
+        <v>235.025</v>
       </c>
     </row>
     <row r="123">
@@ -5467,10 +5467,10 @@
         <v>189.002952239643</v>
       </c>
       <c r="I123" t="n">
-        <v>160</v>
+        <v>158.975</v>
       </c>
       <c r="J123" t="n">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124">
@@ -5499,10 +5499,10 @@
         <v>176.011062489776</v>
       </c>
       <c r="I124" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J124" t="n">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125">
@@ -5534,7 +5534,7 @@
         <v>164</v>
       </c>
       <c r="J125" t="n">
-        <v>368</v>
+        <v>360.025</v>
       </c>
     </row>
     <row r="126">
@@ -5563,10 +5563,10 @@
         <v>192.191655038611</v>
       </c>
       <c r="I126" t="n">
-        <v>138</v>
+        <v>138.975</v>
       </c>
       <c r="J126" t="n">
-        <v>240</v>
+        <v>244.025</v>
       </c>
     </row>
     <row r="127">
@@ -5598,7 +5598,7 @@
         <v>152.975</v>
       </c>
       <c r="J127" t="n">
-        <v>384.025</v>
+        <v>373.025</v>
       </c>
     </row>
     <row r="128">
@@ -5627,10 +5627,10 @@
         <v>68.1164829050085</v>
       </c>
       <c r="I128" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J128" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129">
@@ -5659,10 +5659,10 @@
         <v>77.9439642792462</v>
       </c>
       <c r="I129" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J129" t="n">
-        <v>101</v>
+        <v>100.025</v>
       </c>
     </row>
     <row r="130">
@@ -5691,10 +5691,10 @@
         <v>102.24609065346</v>
       </c>
       <c r="I130" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J130" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131">
@@ -5726,7 +5726,7 @@
         <v>216</v>
       </c>
       <c r="J131" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="132">
@@ -5755,10 +5755,10 @@
         <v>429.345290689844</v>
       </c>
       <c r="I132" t="n">
-        <v>172.975</v>
+        <v>177.95</v>
       </c>
       <c r="J132" t="n">
-        <v>561</v>
+        <v>564.05</v>
       </c>
     </row>
     <row r="133">
@@ -5787,10 +5787,10 @@
         <v>448.172479124297</v>
       </c>
       <c r="I133" t="n">
-        <v>354.975</v>
+        <v>357.975</v>
       </c>
       <c r="J133" t="n">
-        <v>669</v>
+        <v>654</v>
       </c>
     </row>
     <row r="134">
@@ -5819,10 +5819,10 @@
         <v>219.72133130319</v>
       </c>
       <c r="I134" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J134" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135">
@@ -5851,7 +5851,7 @@
         <v>203.522636565229</v>
       </c>
       <c r="I135" t="n">
-        <v>151</v>
+        <v>155.975</v>
       </c>
       <c r="J135" t="n">
         <v>247</v>
@@ -5883,10 +5883,10 @@
         <v>230.007185372408</v>
       </c>
       <c r="I136" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J136" t="n">
-        <v>274.025</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137">
@@ -5915,10 +5915,10 @@
         <v>580.378313040939</v>
       </c>
       <c r="I137" t="n">
-        <v>484</v>
+        <v>480.975</v>
       </c>
       <c r="J137" t="n">
-        <v>661</v>
+        <v>655.025</v>
       </c>
     </row>
     <row r="138">
@@ -5947,10 +5947,10 @@
         <v>603.446852510735</v>
       </c>
       <c r="I138" t="n">
-        <v>463.95</v>
+        <v>468.975</v>
       </c>
       <c r="J138" t="n">
-        <v>683.05</v>
+        <v>683.025</v>
       </c>
     </row>
     <row r="139">
@@ -5979,10 +5979,10 @@
         <v>556.211205850078</v>
       </c>
       <c r="I139" t="n">
-        <v>470</v>
+        <v>462.95</v>
       </c>
       <c r="J139" t="n">
-        <v>745</v>
+        <v>732.025</v>
       </c>
     </row>
     <row r="140">
@@ -6011,10 +6011,10 @@
         <v>486.863604045281</v>
       </c>
       <c r="I140" t="n">
-        <v>347.975</v>
+        <v>340.925</v>
       </c>
       <c r="J140" t="n">
-        <v>597.025</v>
+        <v>603</v>
       </c>
     </row>
     <row r="141">
@@ -6043,10 +6043,10 @@
         <v>503.060476753277</v>
       </c>
       <c r="I141" t="n">
-        <v>300.975</v>
+        <v>299.975</v>
       </c>
       <c r="J141" t="n">
-        <v>707</v>
+        <v>695.05</v>
       </c>
     </row>
     <row r="142">
@@ -6075,10 +6075,10 @@
         <v>529.164438412895</v>
       </c>
       <c r="I142" t="n">
-        <v>459.975</v>
+        <v>448</v>
       </c>
       <c r="J142" t="n">
-        <v>804</v>
+        <v>791.075</v>
       </c>
     </row>
     <row r="143">
@@ -6107,10 +6107,10 @@
         <v>259.959850551726</v>
       </c>
       <c r="I143" t="n">
-        <v>226</v>
+        <v>224.975</v>
       </c>
       <c r="J143" t="n">
-        <v>297.025</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144">
@@ -6139,10 +6139,10 @@
         <v>225.891870802525</v>
       </c>
       <c r="I144" t="n">
-        <v>178</v>
+        <v>172.975</v>
       </c>
       <c r="J144" t="n">
-        <v>314</v>
+        <v>313.025</v>
       </c>
     </row>
     <row r="145">
@@ -6171,10 +6171,10 @@
         <v>194.200002189259</v>
       </c>
       <c r="I145" t="n">
-        <v>147</v>
+        <v>145.975</v>
       </c>
       <c r="J145" t="n">
-        <v>300</v>
+        <v>287.025</v>
       </c>
     </row>
     <row r="146">
@@ -6203,10 +6203,10 @@
         <v>1715.50981292218</v>
       </c>
       <c r="I146" t="n">
-        <v>1392</v>
+        <v>1393.95</v>
       </c>
       <c r="J146" t="n">
-        <v>1926.05</v>
+        <v>1933.025</v>
       </c>
     </row>
     <row r="147">
@@ -6235,10 +6235,10 @@
         <v>1725.79477793355</v>
       </c>
       <c r="I147" t="n">
-        <v>1273.95</v>
+        <v>1272.975</v>
       </c>
       <c r="J147" t="n">
-        <v>2117</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="148">
@@ -6267,10 +6267,10 @@
         <v>1777.63581229154</v>
       </c>
       <c r="I148" t="n">
-        <v>1629</v>
+        <v>1622.975</v>
       </c>
       <c r="J148" t="n">
-        <v>2281</v>
+        <v>2264.05</v>
       </c>
     </row>
     <row r="149">
@@ -6299,10 +6299,10 @@
         <v>1166.37572884755</v>
       </c>
       <c r="I149" t="n">
-        <v>950.975</v>
+        <v>952</v>
       </c>
       <c r="J149" t="n">
-        <v>1507</v>
+        <v>1496.1</v>
       </c>
     </row>
     <row r="150">
@@ -6331,10 +6331,10 @@
         <v>1156.74157815088</v>
       </c>
       <c r="I150" t="n">
-        <v>870.95</v>
+        <v>873</v>
       </c>
       <c r="J150" t="n">
-        <v>1295</v>
+        <v>1288.025</v>
       </c>
     </row>
     <row r="151">
@@ -6363,7 +6363,7 @@
         <v>1204.10037414941</v>
       </c>
       <c r="I151" t="n">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J151" t="n">
         <v>1317.025</v>
@@ -6395,10 +6395,10 @@
         <v>131.429102510317</v>
       </c>
       <c r="I152" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J152" t="n">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153">
@@ -6427,10 +6427,10 @@
         <v>102.196443103785</v>
       </c>
       <c r="I153" t="n">
-        <v>75.975</v>
+        <v>76.975</v>
       </c>
       <c r="J153" t="n">
-        <v>152.025</v>
+        <v>148.025</v>
       </c>
     </row>
     <row r="154">
@@ -6459,10 +6459,10 @@
         <v>90.2664107207493</v>
       </c>
       <c r="I154" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J154" t="n">
-        <v>151.05</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155">
@@ -6491,10 +6491,10 @@
         <v>401.2468517659</v>
       </c>
       <c r="I155" t="n">
-        <v>361.975</v>
+        <v>359</v>
       </c>
       <c r="J155" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="156">
@@ -6523,10 +6523,10 @@
         <v>379.055766909818</v>
       </c>
       <c r="I156" t="n">
-        <v>341</v>
+        <v>340.975</v>
       </c>
       <c r="J156" t="n">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="157">
@@ -6555,10 +6555,10 @@
         <v>378.01504552828</v>
       </c>
       <c r="I157" t="n">
-        <v>332</v>
+        <v>333.975</v>
       </c>
       <c r="J157" t="n">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="158">
@@ -6587,10 +6587,10 @@
         <v>191.185082679637</v>
       </c>
       <c r="I158" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J158" t="n">
-        <v>287</v>
+        <v>284.025</v>
       </c>
     </row>
     <row r="159">
@@ -6619,10 +6619,10 @@
         <v>231.703575889886</v>
       </c>
       <c r="I159" t="n">
-        <v>141.975</v>
+        <v>142</v>
       </c>
       <c r="J159" t="n">
-        <v>330.025</v>
+        <v>324.025</v>
       </c>
     </row>
     <row r="160">
@@ -6651,10 +6651,10 @@
         <v>290.391634707467</v>
       </c>
       <c r="I160" t="n">
-        <v>140.975</v>
+        <v>141</v>
       </c>
       <c r="J160" t="n">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161">
@@ -6683,10 +6683,10 @@
         <v>106.608907638662</v>
       </c>
       <c r="I161" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J161" t="n">
-        <v>135.025</v>
+        <v>132.025</v>
       </c>
     </row>
     <row r="162">
@@ -6715,10 +6715,10 @@
         <v>91.9283210005913</v>
       </c>
       <c r="I162" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J162" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163">
@@ -6747,10 +6747,10 @@
         <v>97.0081674115674</v>
       </c>
       <c r="I163" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J163" t="n">
-        <v>181</v>
+        <v>179.025</v>
       </c>
     </row>
     <row r="164">
@@ -6779,10 +6779,10 @@
         <v>597.241052997331</v>
       </c>
       <c r="I164" t="n">
-        <v>545.975</v>
+        <v>540.95</v>
       </c>
       <c r="J164" t="n">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="165">
@@ -6811,10 +6811,10 @@
         <v>618.782900636984</v>
       </c>
       <c r="I165" t="n">
-        <v>548.95</v>
+        <v>546.95</v>
       </c>
       <c r="J165" t="n">
-        <v>684</v>
+        <v>678.025</v>
       </c>
     </row>
     <row r="166">
@@ -6843,10 +6843,10 @@
         <v>667.136258075606</v>
       </c>
       <c r="I166" t="n">
-        <v>538.975</v>
+        <v>549</v>
       </c>
       <c r="J166" t="n">
-        <v>729</v>
+        <v>739</v>
       </c>
     </row>
     <row r="167">
@@ -6878,7 +6878,7 @@
         <v>136</v>
       </c>
       <c r="J167" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168">
@@ -6907,10 +6907,10 @@
         <v>143.753001779348</v>
       </c>
       <c r="I168" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J168" t="n">
-        <v>175.05</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169">
@@ -6942,7 +6942,7 @@
         <v>113</v>
       </c>
       <c r="J169" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170">
@@ -6971,10 +6971,10 @@
         <v>143.711725305935</v>
       </c>
       <c r="I170" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J170" t="n">
-        <v>178</v>
+        <v>177.025</v>
       </c>
     </row>
     <row r="171">
@@ -7003,10 +7003,10 @@
         <v>118.822008411491</v>
       </c>
       <c r="I171" t="n">
-        <v>87</v>
+        <v>85.975</v>
       </c>
       <c r="J171" t="n">
-        <v>199</v>
+        <v>191.025</v>
       </c>
     </row>
     <row r="172">
@@ -7035,10 +7035,10 @@
         <v>108.876882312862</v>
       </c>
       <c r="I172" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J172" t="n">
-        <v>222</v>
+        <v>216.05</v>
       </c>
     </row>
     <row r="173">
@@ -7067,10 +7067,10 @@
         <v>104.872154621781</v>
       </c>
       <c r="I173" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J173" t="n">
-        <v>129</v>
+        <v>128.025</v>
       </c>
     </row>
     <row r="174">
@@ -7099,10 +7099,10 @@
         <v>105.798749740555</v>
       </c>
       <c r="I174" t="n">
-        <v>86</v>
+        <v>86.975</v>
       </c>
       <c r="J174" t="n">
-        <v>135.025</v>
+        <v>134</v>
       </c>
     </row>
     <row r="175">
@@ -7131,10 +7131,10 @@
         <v>107.529675508067</v>
       </c>
       <c r="I175" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J175" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176">
@@ -7163,10 +7163,10 @@
         <v>119.025465757958</v>
       </c>
       <c r="I176" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J176" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177">
@@ -7195,10 +7195,10 @@
         <v>108.615353196903</v>
       </c>
       <c r="I177" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J177" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178">
@@ -7227,10 +7227,10 @@
         <v>111.47802253484</v>
       </c>
       <c r="I178" t="n">
-        <v>67.975</v>
+        <v>70</v>
       </c>
       <c r="J178" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179">
@@ -7259,10 +7259,10 @@
         <v>864.527774077872</v>
       </c>
       <c r="I179" t="n">
-        <v>759</v>
+        <v>763.95</v>
       </c>
       <c r="J179" t="n">
-        <v>987</v>
+        <v>986.075</v>
       </c>
     </row>
     <row r="180">
@@ -7291,10 +7291,10 @@
         <v>822.244470005276</v>
       </c>
       <c r="I180" t="n">
-        <v>733.95</v>
+        <v>740</v>
       </c>
       <c r="J180" t="n">
-        <v>944.025</v>
+        <v>959.075</v>
       </c>
     </row>
     <row r="181">
@@ -7323,10 +7323,10 @@
         <v>825.823988819326</v>
       </c>
       <c r="I181" t="n">
-        <v>719</v>
+        <v>724.975</v>
       </c>
       <c r="J181" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="182">
@@ -7355,10 +7355,10 @@
         <v>277.477640058262</v>
       </c>
       <c r="I182" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J182" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183">
@@ -7390,7 +7390,7 @@
         <v>180</v>
       </c>
       <c r="J183" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184">
@@ -7422,7 +7422,7 @@
         <v>235.975</v>
       </c>
       <c r="J184" t="n">
-        <v>362</v>
+        <v>365.025</v>
       </c>
     </row>
     <row r="185">
@@ -7451,10 +7451,10 @@
         <v>415.30537171564</v>
       </c>
       <c r="I185" t="n">
-        <v>313.975</v>
+        <v>308</v>
       </c>
       <c r="J185" t="n">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="186">
@@ -7483,10 +7483,10 @@
         <v>378.219377293544</v>
       </c>
       <c r="I186" t="n">
-        <v>280.975</v>
+        <v>281.975</v>
       </c>
       <c r="J186" t="n">
-        <v>495</v>
+        <v>494.075</v>
       </c>
     </row>
     <row r="187">
@@ -7515,10 +7515,10 @@
         <v>453.810051681786</v>
       </c>
       <c r="I187" t="n">
-        <v>309</v>
+        <v>313.975</v>
       </c>
       <c r="J187" t="n">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="188">
@@ -7547,10 +7547,10 @@
         <v>214.661439254112</v>
       </c>
       <c r="I188" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J188" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189">
@@ -7579,10 +7579,10 @@
         <v>202.466855743191</v>
       </c>
       <c r="I189" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J189" t="n">
-        <v>238.025</v>
+        <v>240.025</v>
       </c>
     </row>
     <row r="190">
@@ -7611,10 +7611,10 @@
         <v>201.093917096355</v>
       </c>
       <c r="I190" t="n">
-        <v>174.975</v>
+        <v>170</v>
       </c>
       <c r="J190" t="n">
-        <v>241</v>
+        <v>238.025</v>
       </c>
     </row>
     <row r="191">
@@ -7646,7 +7646,7 @@
         <v>249</v>
       </c>
       <c r="J191" t="n">
-        <v>321.025</v>
+        <v>318</v>
       </c>
     </row>
     <row r="192">
@@ -7675,10 +7675,10 @@
         <v>274.793130166837</v>
       </c>
       <c r="I192" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J192" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="193">
@@ -7707,10 +7707,10 @@
         <v>274.062124971671</v>
       </c>
       <c r="I193" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J193" t="n">
-        <v>315</v>
+        <v>310.025</v>
       </c>
     </row>
     <row r="194">
@@ -7739,10 +7739,10 @@
         <v>383.304034154635</v>
       </c>
       <c r="I194" t="n">
-        <v>331.975</v>
+        <v>325.975</v>
       </c>
       <c r="J194" t="n">
-        <v>571</v>
+        <v>565.025</v>
       </c>
     </row>
     <row r="195">
@@ -7774,7 +7774,7 @@
         <v>322</v>
       </c>
       <c r="J195" t="n">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="196">
@@ -7803,10 +7803,10 @@
         <v>410.745371384334</v>
       </c>
       <c r="I196" t="n">
-        <v>330.975</v>
+        <v>332.95</v>
       </c>
       <c r="J196" t="n">
-        <v>453.025</v>
+        <v>458.025</v>
       </c>
     </row>
     <row r="197">
@@ -7835,10 +7835,10 @@
         <v>337.542185341948</v>
       </c>
       <c r="I197" t="n">
-        <v>288</v>
+        <v>285.975</v>
       </c>
       <c r="J197" t="n">
-        <v>465</v>
+        <v>459.025</v>
       </c>
     </row>
     <row r="198">
@@ -7867,10 +7867,10 @@
         <v>297.622567661008</v>
       </c>
       <c r="I198" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J198" t="n">
-        <v>363.05</v>
+        <v>356</v>
       </c>
     </row>
     <row r="199">
@@ -7899,10 +7899,10 @@
         <v>305.691750341759</v>
       </c>
       <c r="I199" t="n">
-        <v>248.975</v>
+        <v>249</v>
       </c>
       <c r="J199" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="200">
@@ -7931,10 +7931,10 @@
         <v>419.337496491465</v>
       </c>
       <c r="I200" t="n">
-        <v>328.975</v>
+        <v>339</v>
       </c>
       <c r="J200" t="n">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="201">
@@ -7963,10 +7963,10 @@
         <v>452.029131245343</v>
       </c>
       <c r="I201" t="n">
-        <v>360</v>
+        <v>362.975</v>
       </c>
       <c r="J201" t="n">
-        <v>586</v>
+        <v>578.05</v>
       </c>
     </row>
     <row r="202">
@@ -7995,10 +7995,10 @@
         <v>424.450185325935</v>
       </c>
       <c r="I202" t="n">
-        <v>331.975</v>
+        <v>335</v>
       </c>
       <c r="J202" t="n">
-        <v>506.05</v>
+        <v>509.025</v>
       </c>
     </row>
     <row r="203">
@@ -8027,7 +8027,7 @@
         <v>64.0588998167173</v>
       </c>
       <c r="I203" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J203" t="n">
         <v>84</v>
@@ -8059,10 +8059,10 @@
         <v>50.8953250902895</v>
       </c>
       <c r="I204" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J204" t="n">
-        <v>89.025</v>
+        <v>89</v>
       </c>
     </row>
     <row r="205">
@@ -8091,10 +8091,10 @@
         <v>56.1893513654064</v>
       </c>
       <c r="I205" t="n">
-        <v>24</v>
+        <v>24.975</v>
       </c>
       <c r="J205" t="n">
-        <v>105</v>
+        <v>106.025</v>
       </c>
     </row>
     <row r="206">
@@ -8126,7 +8126,7 @@
         <v>15</v>
       </c>
       <c r="J206" t="n">
-        <v>93.025</v>
+        <v>96</v>
       </c>
     </row>
     <row r="207">
@@ -8155,10 +8155,10 @@
         <v>47.706996656818</v>
       </c>
       <c r="I207" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J207" t="n">
-        <v>167</v>
+        <v>160.025</v>
       </c>
     </row>
     <row r="208">
@@ -8187,10 +8187,10 @@
         <v>49.4222885508653</v>
       </c>
       <c r="I208" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J208" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="209">
@@ -8219,10 +8219,10 @@
         <v>68.9449502313808</v>
       </c>
       <c r="I209" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J209" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="210">
@@ -8251,10 +8251,10 @@
         <v>81.2707633845554</v>
       </c>
       <c r="I210" t="n">
-        <v>23</v>
+        <v>23.975</v>
       </c>
       <c r="J210" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="211">
@@ -8283,10 +8283,10 @@
         <v>88.7704960710469</v>
       </c>
       <c r="I211" t="n">
-        <v>63</v>
+        <v>63.975</v>
       </c>
       <c r="J211" t="n">
-        <v>137.025</v>
+        <v>137</v>
       </c>
     </row>
     <row r="212">
@@ -8315,10 +8315,10 @@
         <v>113.055114510448</v>
       </c>
       <c r="I212" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J212" t="n">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213">
@@ -8347,10 +8347,10 @@
         <v>127.220526757291</v>
       </c>
       <c r="I213" t="n">
-        <v>38.975</v>
+        <v>36</v>
       </c>
       <c r="J213" t="n">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214">
@@ -8379,10 +8379,10 @@
         <v>134.791802892252</v>
       </c>
       <c r="I214" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J214" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="215">
@@ -8414,7 +8414,7 @@
         <v>111</v>
       </c>
       <c r="J215" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="216">
@@ -8443,10 +8443,10 @@
         <v>138.670034382496</v>
       </c>
       <c r="I216" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J216" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="217">
@@ -8475,10 +8475,10 @@
         <v>156.746968182958</v>
       </c>
       <c r="I217" t="n">
-        <v>127</v>
+        <v>126.975</v>
       </c>
       <c r="J217" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="218">
@@ -8507,10 +8507,10 @@
         <v>104.76019472633</v>
       </c>
       <c r="I218" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J218" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="219">
@@ -8539,10 +8539,10 @@
         <v>107.458514134575</v>
       </c>
       <c r="I219" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J219" t="n">
-        <v>157</v>
+        <v>154.025</v>
       </c>
     </row>
     <row r="220">
@@ -8574,7 +8574,7 @@
         <v>74</v>
       </c>
       <c r="J220" t="n">
-        <v>118.025</v>
+        <v>116.05</v>
       </c>
     </row>
     <row r="221">
@@ -8606,7 +8606,7 @@
         <v>45</v>
       </c>
       <c r="J221" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="222">
@@ -8635,10 +8635,10 @@
         <v>68.3584018714796</v>
       </c>
       <c r="I222" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J222" t="n">
-        <v>94</v>
+        <v>92.025</v>
       </c>
     </row>
     <row r="223">
@@ -8667,10 +8667,10 @@
         <v>77.0400300384113</v>
       </c>
       <c r="I223" t="n">
-        <v>51</v>
+        <v>52.975</v>
       </c>
       <c r="J223" t="n">
-        <v>103.025</v>
+        <v>104</v>
       </c>
     </row>
     <row r="224">
@@ -8699,10 +8699,10 @@
         <v>301.52728187552</v>
       </c>
       <c r="I224" t="n">
-        <v>251.95</v>
+        <v>247</v>
       </c>
       <c r="J224" t="n">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="225">
@@ -8731,10 +8731,10 @@
         <v>314.389250697975</v>
       </c>
       <c r="I225" t="n">
-        <v>226.975</v>
+        <v>225</v>
       </c>
       <c r="J225" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226">
@@ -8763,10 +8763,10 @@
         <v>294.520665355507</v>
       </c>
       <c r="I226" t="n">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J226" t="n">
-        <v>380.05</v>
+        <v>382</v>
       </c>
     </row>
     <row r="227">
@@ -8795,10 +8795,10 @@
         <v>192.679442012006</v>
       </c>
       <c r="I227" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J227" t="n">
-        <v>229</v>
+        <v>226.025</v>
       </c>
     </row>
     <row r="228">
@@ -8827,10 +8827,10 @@
         <v>210.352332523109</v>
       </c>
       <c r="I228" t="n">
-        <v>154</v>
+        <v>157.975</v>
       </c>
       <c r="J228" t="n">
-        <v>247.025</v>
+        <v>245.025</v>
       </c>
     </row>
     <row r="229">
@@ -8859,10 +8859,10 @@
         <v>234.203768345207</v>
       </c>
       <c r="I229" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J229" t="n">
-        <v>271.025</v>
+        <v>265.025</v>
       </c>
     </row>
     <row r="230">
@@ -8891,10 +8891,10 @@
         <v>201.926755855081</v>
       </c>
       <c r="I230" t="n">
-        <v>132.975</v>
+        <v>135.975</v>
       </c>
       <c r="J230" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="231">
@@ -8923,10 +8923,10 @@
         <v>178.113948004417</v>
       </c>
       <c r="I231" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J231" t="n">
-        <v>285</v>
+        <v>286.025</v>
       </c>
     </row>
     <row r="232">
@@ -8955,10 +8955,10 @@
         <v>169.647555777735</v>
       </c>
       <c r="I232" t="n">
-        <v>113.925</v>
+        <v>113</v>
       </c>
       <c r="J232" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233">
@@ -8987,10 +8987,10 @@
         <v>91.157326551303</v>
       </c>
       <c r="I233" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J233" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="234">
@@ -9019,10 +9019,10 @@
         <v>99.1888741456033</v>
       </c>
       <c r="I234" t="n">
-        <v>28</v>
+        <v>29.975</v>
       </c>
       <c r="J234" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="235">
@@ -9051,10 +9051,10 @@
         <v>111.884569520152</v>
       </c>
       <c r="I235" t="n">
-        <v>84.975</v>
+        <v>85</v>
       </c>
       <c r="J235" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="236">
@@ -9083,10 +9083,10 @@
         <v>536.630270378093</v>
       </c>
       <c r="I236" t="n">
-        <v>478.975</v>
+        <v>471</v>
       </c>
       <c r="J236" t="n">
-        <v>695</v>
+        <v>677.025</v>
       </c>
     </row>
     <row r="237">
@@ -9115,10 +9115,10 @@
         <v>513.765055586176</v>
       </c>
       <c r="I237" t="n">
-        <v>467</v>
+        <v>465.95</v>
       </c>
       <c r="J237" t="n">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="238">
@@ -9147,10 +9147,10 @@
         <v>490.765771325309</v>
       </c>
       <c r="I238" t="n">
-        <v>448.95</v>
+        <v>448</v>
       </c>
       <c r="J238" t="n">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="239">
@@ -9179,10 +9179,10 @@
         <v>760.254816486694</v>
       </c>
       <c r="I239" t="n">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="J239" t="n">
-        <v>836.025</v>
+        <v>842</v>
       </c>
     </row>
     <row r="240">
@@ -9211,10 +9211,10 @@
         <v>756.890333532584</v>
       </c>
       <c r="I240" t="n">
-        <v>645.975</v>
+        <v>655.95</v>
       </c>
       <c r="J240" t="n">
-        <v>856</v>
+        <v>853.025</v>
       </c>
     </row>
     <row r="241">
@@ -9243,10 +9243,10 @@
         <v>857.181997060144</v>
       </c>
       <c r="I241" t="n">
-        <v>708</v>
+        <v>715.925</v>
       </c>
       <c r="J241" t="n">
-        <v>958.025</v>
+        <v>952.025</v>
       </c>
     </row>
     <row r="242">
@@ -9275,10 +9275,10 @@
         <v>434.666556778837</v>
       </c>
       <c r="I242" t="n">
-        <v>362</v>
+        <v>360.975</v>
       </c>
       <c r="J242" t="n">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="243">
@@ -9307,10 +9307,10 @@
         <v>374.062565231711</v>
       </c>
       <c r="I243" t="n">
-        <v>335.975</v>
+        <v>331</v>
       </c>
       <c r="J243" t="n">
-        <v>431</v>
+        <v>424.025</v>
       </c>
     </row>
     <row r="244">
@@ -9342,7 +9342,7 @@
         <v>332</v>
       </c>
       <c r="J244" t="n">
-        <v>464</v>
+        <v>462.025</v>
       </c>
     </row>
     <row r="245">
@@ -9371,10 +9371,10 @@
         <v>292.134392031611</v>
       </c>
       <c r="I245" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J245" t="n">
-        <v>424</v>
+        <v>425.025</v>
       </c>
     </row>
     <row r="246">
@@ -9403,10 +9403,10 @@
         <v>267.485922770836</v>
       </c>
       <c r="I246" t="n">
-        <v>230</v>
+        <v>226.975</v>
       </c>
       <c r="J246" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="247">
@@ -9435,10 +9435,10 @@
         <v>306.474792443658</v>
       </c>
       <c r="I247" t="n">
-        <v>239.95</v>
+        <v>244</v>
       </c>
       <c r="J247" t="n">
-        <v>359.025</v>
+        <v>360</v>
       </c>
     </row>
     <row r="248">
@@ -9467,10 +9467,10 @@
         <v>255.68746653405</v>
       </c>
       <c r="I248" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J248" t="n">
-        <v>343</v>
+        <v>342.025</v>
       </c>
     </row>
     <row r="249">
@@ -9499,10 +9499,10 @@
         <v>217.789127516661</v>
       </c>
       <c r="I249" t="n">
-        <v>190</v>
+        <v>190.975</v>
       </c>
       <c r="J249" t="n">
-        <v>256</v>
+        <v>256.025</v>
       </c>
     </row>
     <row r="250">
@@ -9531,10 +9531,10 @@
         <v>304.520958924492</v>
       </c>
       <c r="I250" t="n">
-        <v>178</v>
+        <v>176.975</v>
       </c>
       <c r="J250" t="n">
-        <v>452</v>
+        <v>448.025</v>
       </c>
     </row>
     <row r="251">
@@ -9563,10 +9563,10 @@
         <v>172.386399379153</v>
       </c>
       <c r="I251" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J251" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="252">
@@ -9595,10 +9595,10 @@
         <v>187.2048764369</v>
       </c>
       <c r="I252" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J252" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="253">
@@ -9627,10 +9627,10 @@
         <v>160.323704471656</v>
       </c>
       <c r="I253" t="n">
-        <v>129</v>
+        <v>126.975</v>
       </c>
       <c r="J253" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="254">
@@ -9659,10 +9659,10 @@
         <v>302.442991457303</v>
       </c>
       <c r="I254" t="n">
-        <v>247.975</v>
+        <v>244</v>
       </c>
       <c r="J254" t="n">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="255">
@@ -9691,10 +9691,10 @@
         <v>285.405108319953</v>
       </c>
       <c r="I255" t="n">
-        <v>220.975</v>
+        <v>216.975</v>
       </c>
       <c r="J255" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="256">
@@ -9723,7 +9723,7 @@
         <v>330.137792323923</v>
       </c>
       <c r="I256" t="n">
-        <v>273.975</v>
+        <v>275</v>
       </c>
       <c r="J256" t="n">
         <v>375</v>
@@ -9755,10 +9755,10 @@
         <v>194.052697078732</v>
       </c>
       <c r="I257" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J257" t="n">
-        <v>231.025</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="258">
@@ -9787,10 +9787,10 @@
         <v>185.902884082749</v>
       </c>
       <c r="I258" t="n">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J258" t="n">
-        <v>264.075</v>
+        <v>264.025</v>
       </c>
     </row>
     <row r="259">
@@ -9822,7 +9822,7 @@
         <v>126</v>
       </c>
       <c r="J259" t="n">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="260">
@@ -9851,10 +9851,10 @@
         <v>233.779146773809</v>
       </c>
       <c r="I260" t="n">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J260" t="n">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="261">
@@ -9883,10 +9883,10 @@
         <v>234.284241979837</v>
       </c>
       <c r="I261" t="n">
-        <v>174.95</v>
+        <v>177</v>
       </c>
       <c r="J261" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="262">
@@ -9915,10 +9915,10 @@
         <v>298.005477713965</v>
       </c>
       <c r="I262" t="n">
-        <v>163.975</v>
+        <v>168</v>
       </c>
       <c r="J262" t="n">
-        <v>357.025</v>
+        <v>360.025</v>
       </c>
     </row>
     <row r="263">
@@ -9947,10 +9947,10 @@
         <v>418.425389128442</v>
       </c>
       <c r="I263" t="n">
-        <v>367.975</v>
+        <v>364.975</v>
       </c>
       <c r="J263" t="n">
-        <v>506</v>
+        <v>501.025</v>
       </c>
     </row>
     <row r="264">
@@ -9979,10 +9979,10 @@
         <v>415.406053977971</v>
       </c>
       <c r="I264" t="n">
-        <v>347.975</v>
+        <v>355.975</v>
       </c>
       <c r="J264" t="n">
-        <v>465.025</v>
+        <v>465</v>
       </c>
     </row>
     <row r="265">
@@ -10014,7 +10014,7 @@
         <v>382</v>
       </c>
       <c r="J265" t="n">
-        <v>471</v>
+        <v>465.025</v>
       </c>
     </row>
     <row r="266">
@@ -10043,10 +10043,10 @@
         <v>207.468602337727</v>
       </c>
       <c r="I266" t="n">
-        <v>162</v>
+        <v>162.975</v>
       </c>
       <c r="J266" t="n">
-        <v>424</v>
+        <v>417.025</v>
       </c>
     </row>
     <row r="267">
@@ -10075,10 +10075,10 @@
         <v>190.640064830378</v>
       </c>
       <c r="I267" t="n">
-        <v>150.975</v>
+        <v>147</v>
       </c>
       <c r="J267" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="268">
@@ -10107,10 +10107,10 @@
         <v>214.202046270979</v>
       </c>
       <c r="I268" t="n">
-        <v>155</v>
+        <v>157.975</v>
       </c>
       <c r="J268" t="n">
-        <v>247</v>
+        <v>250.025</v>
       </c>
     </row>
     <row r="269">
@@ -10139,10 +10139,10 @@
         <v>384.447643263817</v>
       </c>
       <c r="I269" t="n">
-        <v>199.975</v>
+        <v>195.975</v>
       </c>
       <c r="J269" t="n">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="270">
@@ -10171,10 +10171,10 @@
         <v>413.841796139202</v>
       </c>
       <c r="I270" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J270" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="271">
@@ -10203,10 +10203,10 @@
         <v>365.392342742503</v>
       </c>
       <c r="I271" t="n">
-        <v>321</v>
+        <v>317.975</v>
       </c>
       <c r="J271" t="n">
-        <v>474</v>
+        <v>465.025</v>
       </c>
     </row>
     <row r="272">
@@ -10235,10 +10235,10 @@
         <v>382.04180821942</v>
       </c>
       <c r="I272" t="n">
-        <v>314</v>
+        <v>315.975</v>
       </c>
       <c r="J272" t="n">
-        <v>432.025</v>
+        <v>433</v>
       </c>
     </row>
     <row r="273">
@@ -10267,10 +10267,10 @@
         <v>380.854685477009</v>
       </c>
       <c r="I273" t="n">
-        <v>312.975</v>
+        <v>310</v>
       </c>
       <c r="J273" t="n">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="274">
@@ -10299,10 +10299,10 @@
         <v>389.302907566129</v>
       </c>
       <c r="I274" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J274" t="n">
-        <v>518</v>
+        <v>511.025</v>
       </c>
     </row>
     <row r="275">
@@ -10331,10 +10331,10 @@
         <v>256.580627643982</v>
       </c>
       <c r="I275" t="n">
-        <v>220</v>
+        <v>219.975</v>
       </c>
       <c r="J275" t="n">
-        <v>304.05</v>
+        <v>304.025</v>
       </c>
     </row>
     <row r="276">
@@ -10363,10 +10363,10 @@
         <v>282.797126425846</v>
       </c>
       <c r="I276" t="n">
-        <v>217</v>
+        <v>223.975</v>
       </c>
       <c r="J276" t="n">
-        <v>324.05</v>
+        <v>329</v>
       </c>
     </row>
     <row r="277">
@@ -10395,10 +10395,10 @@
         <v>307.626006424657</v>
       </c>
       <c r="I277" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J277" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="278">
@@ -10427,10 +10427,10 @@
         <v>266.534287662769</v>
       </c>
       <c r="I278" t="n">
-        <v>189.975</v>
+        <v>191.975</v>
       </c>
       <c r="J278" t="n">
-        <v>388</v>
+        <v>388.05</v>
       </c>
     </row>
     <row r="279">
@@ -10459,10 +10459,10 @@
         <v>236.803544817164</v>
       </c>
       <c r="I279" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J279" t="n">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="280">
@@ -10491,7 +10491,7 @@
         <v>223.38423092684</v>
       </c>
       <c r="I280" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J280" t="n">
         <v>273</v>
@@ -10526,7 +10526,7 @@
         <v>244</v>
       </c>
       <c r="J281" t="n">
-        <v>329.025</v>
+        <v>327.025</v>
       </c>
     </row>
     <row r="282">
@@ -10555,10 +10555,10 @@
         <v>327.618090969351</v>
       </c>
       <c r="I282" t="n">
-        <v>230.975</v>
+        <v>233</v>
       </c>
       <c r="J282" t="n">
-        <v>398</v>
+        <v>405.025</v>
       </c>
     </row>
     <row r="283">
@@ -10587,10 +10587,10 @@
         <v>407.193301548598</v>
       </c>
       <c r="I283" t="n">
-        <v>276</v>
+        <v>285.975</v>
       </c>
       <c r="J283" t="n">
-        <v>477.025</v>
+        <v>473.05</v>
       </c>
     </row>
     <row r="284">
@@ -10619,10 +10619,10 @@
         <v>322.774872429631</v>
       </c>
       <c r="I284" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J284" t="n">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="285">
@@ -10654,7 +10654,7 @@
         <v>176.975</v>
       </c>
       <c r="J285" t="n">
-        <v>383.05</v>
+        <v>378</v>
       </c>
     </row>
     <row r="286">
@@ -10683,10 +10683,10 @@
         <v>397.089287410567</v>
       </c>
       <c r="I286" t="n">
-        <v>333</v>
+        <v>330.975</v>
       </c>
       <c r="J286" t="n">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="287">
@@ -10715,10 +10715,10 @@
         <v>50.0120827898377</v>
       </c>
       <c r="I287" t="n">
-        <v>17.975</v>
+        <v>16.975</v>
       </c>
       <c r="J287" t="n">
-        <v>95</v>
+        <v>86.025</v>
       </c>
     </row>
     <row r="288">
@@ -10747,10 +10747,10 @@
         <v>56.920624944684</v>
       </c>
       <c r="I288" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J288" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="289">
@@ -10779,10 +10779,10 @@
         <v>52.2266524184839</v>
       </c>
       <c r="I289" t="n">
-        <v>36</v>
+        <v>35.975</v>
       </c>
       <c r="J289" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="290">
@@ -10811,10 +10811,10 @@
         <v>102.174816905588</v>
       </c>
       <c r="I290" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J290" t="n">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="291">
@@ -10843,10 +10843,10 @@
         <v>84.6772727514166</v>
       </c>
       <c r="I291" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J291" t="n">
-        <v>172</v>
+        <v>167.025</v>
       </c>
     </row>
     <row r="292">
@@ -10875,10 +10875,10 @@
         <v>75.9377943012915</v>
       </c>
       <c r="I292" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J292" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="293">
@@ -10907,10 +10907,10 @@
         <v>590.284575282778</v>
       </c>
       <c r="I293" t="n">
-        <v>449.975</v>
+        <v>452.95</v>
       </c>
       <c r="J293" t="n">
-        <v>1025</v>
+        <v>1026.025</v>
       </c>
     </row>
     <row r="294">
@@ -10939,10 +10939,10 @@
         <v>509.687990170441</v>
       </c>
       <c r="I294" t="n">
-        <v>402.975</v>
+        <v>404.95</v>
       </c>
       <c r="J294" t="n">
-        <v>615.125</v>
+        <v>610</v>
       </c>
     </row>
     <row r="295">
@@ -10971,10 +10971,10 @@
         <v>521.609560651929</v>
       </c>
       <c r="I295" t="n">
-        <v>445</v>
+        <v>440.975</v>
       </c>
       <c r="J295" t="n">
-        <v>621</v>
+        <v>621.05</v>
       </c>
     </row>
     <row r="296">
@@ -11003,10 +11003,10 @@
         <v>1100.13165359246</v>
       </c>
       <c r="I296" t="n">
-        <v>854</v>
+        <v>845.925</v>
       </c>
       <c r="J296" t="n">
-        <v>1431</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="297">
@@ -11035,10 +11035,10 @@
         <v>1110.28227889303</v>
       </c>
       <c r="I297" t="n">
-        <v>785.95</v>
+        <v>785.975</v>
       </c>
       <c r="J297" t="n">
-        <v>1352</v>
+        <v>1335.025</v>
       </c>
     </row>
     <row r="298">
@@ -11067,10 +11067,10 @@
         <v>1190.20584440917</v>
       </c>
       <c r="I298" t="n">
-        <v>1088.975</v>
+        <v>1083</v>
       </c>
       <c r="J298" t="n">
-        <v>1471</v>
+        <v>1448.025</v>
       </c>
     </row>
     <row r="299">
@@ -11099,10 +11099,10 @@
         <v>395.466970839739</v>
       </c>
       <c r="I299" t="n">
-        <v>248</v>
+        <v>252.95</v>
       </c>
       <c r="J299" t="n">
-        <v>814</v>
+        <v>805.175</v>
       </c>
     </row>
     <row r="300">
@@ -11131,10 +11131,10 @@
         <v>381.04764253549</v>
       </c>
       <c r="I300" t="n">
-        <v>204.975</v>
+        <v>207.95</v>
       </c>
       <c r="J300" t="n">
-        <v>471.025</v>
+        <v>467.025</v>
       </c>
     </row>
     <row r="301">
@@ -11163,10 +11163,10 @@
         <v>420.567579822316</v>
       </c>
       <c r="I301" t="n">
-        <v>377</v>
+        <v>375.975</v>
       </c>
       <c r="J301" t="n">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="302">
@@ -11195,10 +11195,10 @@
         <v>73.4568332787178</v>
       </c>
       <c r="I302" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J302" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="303">
@@ -11227,10 +11227,10 @@
         <v>71.9132928160292</v>
       </c>
       <c r="I303" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J303" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="304">
@@ -11259,10 +11259,10 @@
         <v>84.3648174552861</v>
       </c>
       <c r="I304" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J304" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="305">
@@ -11294,7 +11294,7 @@
         <v>24</v>
       </c>
       <c r="J305" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="306">
@@ -11326,7 +11326,7 @@
         <v>18</v>
       </c>
       <c r="J306" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="307">
@@ -11358,7 +11358,7 @@
         <v>22</v>
       </c>
       <c r="J307" t="n">
-        <v>78</v>
+        <v>77.025</v>
       </c>
     </row>
     <row r="308">
@@ -11387,10 +11387,10 @@
         <v>1285.0351407963</v>
       </c>
       <c r="I308" t="n">
-        <v>1011</v>
+        <v>1007.975</v>
       </c>
       <c r="J308" t="n">
-        <v>1630</v>
+        <v>1612.025</v>
       </c>
     </row>
     <row r="309">
@@ -11419,10 +11419,10 @@
         <v>1282.2736519537</v>
       </c>
       <c r="I309" t="n">
-        <v>912.95</v>
+        <v>909</v>
       </c>
       <c r="J309" t="n">
-        <v>1533</v>
+        <v>1519.05</v>
       </c>
     </row>
     <row r="310">
@@ -11451,10 +11451,10 @@
         <v>1243.99630837659</v>
       </c>
       <c r="I310" t="n">
-        <v>1116.95</v>
+        <v>1109</v>
       </c>
       <c r="J310" t="n">
-        <v>1625</v>
+        <v>1626.05</v>
       </c>
     </row>
     <row r="311">
@@ -11483,10 +11483,10 @@
         <v>250.889471146344</v>
       </c>
       <c r="I311" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J311" t="n">
-        <v>356</v>
+        <v>347.025</v>
       </c>
     </row>
     <row r="312">
@@ -11515,10 +11515,10 @@
         <v>225.985230180352</v>
       </c>
       <c r="I312" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J312" t="n">
-        <v>262.05</v>
+        <v>260.025</v>
       </c>
     </row>
     <row r="313">
@@ -11547,10 +11547,10 @@
         <v>270.55242583752</v>
       </c>
       <c r="I313" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J313" t="n">
-        <v>336.025</v>
+        <v>340</v>
       </c>
     </row>
     <row r="314">
@@ -11579,10 +11579,10 @@
         <v>243.868562527944</v>
       </c>
       <c r="I314" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J314" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="315">
@@ -11611,10 +11611,10 @@
         <v>236.937214139555</v>
       </c>
       <c r="I315" t="n">
-        <v>176.975</v>
+        <v>177</v>
       </c>
       <c r="J315" t="n">
-        <v>317</v>
+        <v>306.025</v>
       </c>
     </row>
     <row r="316">
@@ -11643,10 +11643,10 @@
         <v>245.915895135374</v>
       </c>
       <c r="I316" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J316" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="317">
@@ -11675,10 +11675,10 @@
         <v>195.139876878409</v>
       </c>
       <c r="I317" t="n">
-        <v>128</v>
+        <v>125.975</v>
       </c>
       <c r="J317" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="318">
@@ -11707,10 +11707,10 @@
         <v>193.342336685509</v>
       </c>
       <c r="I318" t="n">
-        <v>110</v>
+        <v>111.975</v>
       </c>
       <c r="J318" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="319">
@@ -11742,7 +11742,7 @@
         <v>117</v>
       </c>
       <c r="J319" t="n">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="320">
@@ -11771,10 +11771,10 @@
         <v>571.473437380415</v>
       </c>
       <c r="I320" t="n">
-        <v>356</v>
+        <v>347.975</v>
       </c>
       <c r="J320" t="n">
-        <v>866</v>
+        <v>856.05</v>
       </c>
     </row>
     <row r="321">
@@ -11803,10 +11803,10 @@
         <v>562.738827625323</v>
       </c>
       <c r="I321" t="n">
-        <v>293.975</v>
+        <v>294.975</v>
       </c>
       <c r="J321" t="n">
-        <v>819</v>
+        <v>810</v>
       </c>
     </row>
     <row r="322">
@@ -11835,10 +11835,10 @@
         <v>623.078720646625</v>
       </c>
       <c r="I322" t="n">
-        <v>532.925</v>
+        <v>524.925</v>
       </c>
       <c r="J322" t="n">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="323">
@@ -11867,10 +11867,10 @@
         <v>475.918494772142</v>
       </c>
       <c r="I323" t="n">
-        <v>413</v>
+        <v>410.975</v>
       </c>
       <c r="J323" t="n">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="324">
@@ -11899,10 +11899,10 @@
         <v>475.468929942064</v>
       </c>
       <c r="I324" t="n">
-        <v>391</v>
+        <v>390.975</v>
       </c>
       <c r="J324" t="n">
-        <v>664</v>
+        <v>663.025</v>
       </c>
     </row>
     <row r="325">
@@ -11934,7 +11934,7 @@
         <v>353</v>
       </c>
       <c r="J325" t="n">
-        <v>522.1</v>
+        <v>509</v>
       </c>
     </row>
     <row r="326">
@@ -11963,10 +11963,10 @@
         <v>515.821441263509</v>
       </c>
       <c r="I326" t="n">
-        <v>421.95</v>
+        <v>420</v>
       </c>
       <c r="J326" t="n">
-        <v>596.025</v>
+        <v>602</v>
       </c>
     </row>
     <row r="327">
@@ -11995,10 +11995,10 @@
         <v>530.219698137813</v>
       </c>
       <c r="I327" t="n">
-        <v>405.975</v>
+        <v>414.975</v>
       </c>
       <c r="J327" t="n">
-        <v>648</v>
+        <v>638.025</v>
       </c>
     </row>
     <row r="328">
@@ -12027,10 +12027,10 @@
         <v>503.742346705752</v>
       </c>
       <c r="I328" t="n">
-        <v>438.975</v>
+        <v>439.95</v>
       </c>
       <c r="J328" t="n">
-        <v>706</v>
+        <v>691.025</v>
       </c>
     </row>
     <row r="329">
@@ -12059,10 +12059,10 @@
         <v>376.762476232608</v>
       </c>
       <c r="I329" t="n">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J329" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="330">
@@ -12091,10 +12091,10 @@
         <v>399.852619480427</v>
       </c>
       <c r="I330" t="n">
-        <v>312.975</v>
+        <v>315.975</v>
       </c>
       <c r="J330" t="n">
-        <v>456</v>
+        <v>458.05</v>
       </c>
     </row>
     <row r="331">
@@ -12126,7 +12126,7 @@
         <v>356.975</v>
       </c>
       <c r="J331" t="n">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="332">
@@ -12155,10 +12155,10 @@
         <v>682.469858869094</v>
       </c>
       <c r="I332" t="n">
-        <v>584.975</v>
+        <v>582</v>
       </c>
       <c r="J332" t="n">
-        <v>749</v>
+        <v>752.025</v>
       </c>
     </row>
     <row r="333">
@@ -12187,10 +12187,10 @@
         <v>691.899499208868</v>
       </c>
       <c r="I333" t="n">
-        <v>594.975</v>
+        <v>597.95</v>
       </c>
       <c r="J333" t="n">
-        <v>856</v>
+        <v>838.05</v>
       </c>
     </row>
     <row r="334">
@@ -12219,10 +12219,10 @@
         <v>616.486544320612</v>
       </c>
       <c r="I334" t="n">
-        <v>528.975</v>
+        <v>519.95</v>
       </c>
       <c r="J334" t="n">
-        <v>934</v>
+        <v>919.025</v>
       </c>
     </row>
     <row r="335">
@@ -12251,10 +12251,10 @@
         <v>213.251703823142</v>
       </c>
       <c r="I335" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J335" t="n">
-        <v>251.05</v>
+        <v>251</v>
       </c>
     </row>
     <row r="336">
@@ -12283,10 +12283,10 @@
         <v>206.588328746157</v>
       </c>
       <c r="I336" t="n">
-        <v>177.975</v>
+        <v>174</v>
       </c>
       <c r="J336" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="337">
@@ -12315,10 +12315,10 @@
         <v>197.880698949692</v>
       </c>
       <c r="I337" t="n">
-        <v>166.975</v>
+        <v>166</v>
       </c>
       <c r="J337" t="n">
-        <v>278</v>
+        <v>278.025</v>
       </c>
     </row>
     <row r="338">
@@ -12347,10 +12347,10 @@
         <v>166.778721133061</v>
       </c>
       <c r="I338" t="n">
-        <v>143</v>
+        <v>141.975</v>
       </c>
       <c r="J338" t="n">
-        <v>195</v>
+        <v>195.025</v>
       </c>
     </row>
     <row r="339">
@@ -12379,10 +12379,10 @@
         <v>153.77049848353</v>
       </c>
       <c r="I339" t="n">
-        <v>126.975</v>
+        <v>128</v>
       </c>
       <c r="J339" t="n">
-        <v>193.025</v>
+        <v>192</v>
       </c>
     </row>
     <row r="340">
@@ -12411,10 +12411,10 @@
         <v>153.063138283572</v>
       </c>
       <c r="I340" t="n">
-        <v>121.95</v>
+        <v>118.975</v>
       </c>
       <c r="J340" t="n">
-        <v>182</v>
+        <v>182.025</v>
       </c>
     </row>
     <row r="341">
@@ -12443,10 +12443,10 @@
         <v>88.2945546086568</v>
       </c>
       <c r="I341" t="n">
-        <v>59</v>
+        <v>57.975</v>
       </c>
       <c r="J341" t="n">
-        <v>142</v>
+        <v>140.025</v>
       </c>
     </row>
     <row r="342">
@@ -12507,10 +12507,10 @@
         <v>104.622977792762</v>
       </c>
       <c r="I343" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J343" t="n">
-        <v>150.025</v>
+        <v>149</v>
       </c>
     </row>
     <row r="344">
@@ -12539,10 +12539,10 @@
         <v>32.6444045159404</v>
       </c>
       <c r="I344" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J344" t="n">
-        <v>51</v>
+        <v>49.025</v>
       </c>
     </row>
     <row r="345">
@@ -12571,10 +12571,10 @@
         <v>38.3905414191339</v>
       </c>
       <c r="I345" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J345" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="346">
@@ -12603,10 +12603,10 @@
         <v>39.4773272158178</v>
       </c>
       <c r="I346" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J346" t="n">
-        <v>57</v>
+        <v>56.025</v>
       </c>
     </row>
     <row r="347">
@@ -12635,7 +12635,7 @@
         <v>96.8805668402317</v>
       </c>
       <c r="I347" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J347" t="n">
         <v>118</v>
@@ -12667,10 +12667,10 @@
         <v>97.4237355920831</v>
       </c>
       <c r="I348" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J348" t="n">
-        <v>124.025</v>
+        <v>124</v>
       </c>
     </row>
     <row r="349">
@@ -12699,10 +12699,10 @@
         <v>118.490599565387</v>
       </c>
       <c r="I349" t="n">
-        <v>78</v>
+        <v>79.975</v>
       </c>
       <c r="J349" t="n">
-        <v>149.05</v>
+        <v>152</v>
       </c>
     </row>
     <row r="350">
@@ -12731,10 +12731,10 @@
         <v>81.3976001651893</v>
       </c>
       <c r="I350" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J350" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="351">
@@ -12763,10 +12763,10 @@
         <v>90.0260944216432</v>
       </c>
       <c r="I351" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J351" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="352">
@@ -12795,10 +12795,10 @@
         <v>101.767192524501</v>
       </c>
       <c r="I352" t="n">
-        <v>62</v>
+        <v>65.975</v>
       </c>
       <c r="J352" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="353">
@@ -12827,10 +12827,10 @@
         <v>326.03903291144</v>
       </c>
       <c r="I353" t="n">
-        <v>262</v>
+        <v>259.975</v>
       </c>
       <c r="J353" t="n">
-        <v>387</v>
+        <v>382.05</v>
       </c>
     </row>
     <row r="354">
@@ -12859,10 +12859,10 @@
         <v>338.353060382381</v>
       </c>
       <c r="I354" t="n">
-        <v>261.975</v>
+        <v>263</v>
       </c>
       <c r="J354" t="n">
-        <v>403</v>
+        <v>415.025</v>
       </c>
     </row>
     <row r="355">
@@ -12891,10 +12891,10 @@
         <v>286.899946866872</v>
       </c>
       <c r="I355" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J355" t="n">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="356">
@@ -12923,10 +12923,10 @@
         <v>259.915172339924</v>
       </c>
       <c r="I356" t="n">
-        <v>160</v>
+        <v>159.95</v>
       </c>
       <c r="J356" t="n">
-        <v>666</v>
+        <v>656.05</v>
       </c>
     </row>
     <row r="357">
@@ -12955,10 +12955,10 @@
         <v>230.939583116179</v>
       </c>
       <c r="I357" t="n">
-        <v>129.975</v>
+        <v>128.975</v>
       </c>
       <c r="J357" t="n">
-        <v>302.075</v>
+        <v>298</v>
       </c>
     </row>
     <row r="358">
@@ -12987,7 +12987,7 @@
         <v>241.494144382643</v>
       </c>
       <c r="I358" t="n">
-        <v>209</v>
+        <v>205.975</v>
       </c>
       <c r="J358" t="n">
         <v>319</v>
@@ -13051,7 +13051,7 @@
         <v>71.6422282276929</v>
       </c>
       <c r="I360" t="n">
-        <v>37</v>
+        <v>36.975</v>
       </c>
       <c r="J360" t="n">
         <v>108</v>
@@ -13083,10 +13083,10 @@
         <v>91.8065122617333</v>
       </c>
       <c r="I361" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J361" t="n">
-        <v>150</v>
+        <v>147.025</v>
       </c>
     </row>
     <row r="362">
@@ -13115,10 +13115,10 @@
         <v>90.7763936429481</v>
       </c>
       <c r="I362" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J362" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="363">
@@ -13147,10 +13147,10 @@
         <v>96.573475671667</v>
       </c>
       <c r="I363" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J363" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="364">
@@ -13182,7 +13182,7 @@
         <v>79</v>
       </c>
       <c r="J364" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="365">
@@ -13211,10 +13211,10 @@
         <v>339.489018571242</v>
       </c>
       <c r="I365" t="n">
-        <v>270</v>
+        <v>268.975</v>
       </c>
       <c r="J365" t="n">
-        <v>389.025</v>
+        <v>389</v>
       </c>
     </row>
     <row r="366">
@@ -13243,10 +13243,10 @@
         <v>318.761071924891</v>
       </c>
       <c r="I366" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J366" t="n">
-        <v>413.075</v>
+        <v>416.025</v>
       </c>
     </row>
     <row r="367">
@@ -13275,10 +13275,10 @@
         <v>354.147488670043</v>
       </c>
       <c r="I367" t="n">
-        <v>231.975</v>
+        <v>233.95</v>
       </c>
       <c r="J367" t="n">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="368">
@@ -13307,10 +13307,10 @@
         <v>323.78656708154</v>
       </c>
       <c r="I368" t="n">
-        <v>251</v>
+        <v>244.975</v>
       </c>
       <c r="J368" t="n">
-        <v>457</v>
+        <v>450.025</v>
       </c>
     </row>
     <row r="369">
@@ -13339,10 +13339,10 @@
         <v>324.844633213117</v>
       </c>
       <c r="I369" t="n">
-        <v>229.975</v>
+        <v>227</v>
       </c>
       <c r="J369" t="n">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="370">
@@ -13371,10 +13371,10 @@
         <v>353.414570593711</v>
       </c>
       <c r="I370" t="n">
-        <v>315</v>
+        <v>310.975</v>
       </c>
       <c r="J370" t="n">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="371">
@@ -13403,10 +13403,10 @@
         <v>171.16035177142</v>
       </c>
       <c r="I371" t="n">
-        <v>118</v>
+        <v>120.975</v>
       </c>
       <c r="J371" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="372">
@@ -13435,10 +13435,10 @@
         <v>156.883977403803</v>
       </c>
       <c r="I372" t="n">
-        <v>102.975</v>
+        <v>106</v>
       </c>
       <c r="J372" t="n">
-        <v>199</v>
+        <v>199.025</v>
       </c>
     </row>
     <row r="373">
@@ -13467,7 +13467,7 @@
         <v>186.760815789251</v>
       </c>
       <c r="I373" t="n">
-        <v>143</v>
+        <v>142.975</v>
       </c>
       <c r="J373" t="n">
         <v>224</v>
@@ -13499,10 +13499,10 @@
         <v>1275.17981784138</v>
       </c>
       <c r="I374" t="n">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="J374" t="n">
-        <v>1471</v>
+        <v>1466.05</v>
       </c>
     </row>
     <row r="375">
@@ -13531,10 +13531,10 @@
         <v>1271.82434983382</v>
       </c>
       <c r="I375" t="n">
-        <v>1033.95</v>
+        <v>1037.975</v>
       </c>
       <c r="J375" t="n">
-        <v>1419.15</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="376">
@@ -13563,10 +13563,10 @@
         <v>1282.0936258108</v>
       </c>
       <c r="I376" t="n">
-        <v>1208</v>
+        <v>1201.975</v>
       </c>
       <c r="J376" t="n">
-        <v>1440</v>
+        <v>1430.05</v>
       </c>
     </row>
     <row r="377">
@@ -13595,10 +13595,10 @@
         <v>2615.9491284528</v>
       </c>
       <c r="I377" t="n">
-        <v>2186.975</v>
+        <v>2179.95</v>
       </c>
       <c r="J377" t="n">
-        <v>3479</v>
+        <v>3450.025</v>
       </c>
     </row>
     <row r="378">
@@ -13627,10 +13627,10 @@
         <v>2656.25741594877</v>
       </c>
       <c r="I378" t="n">
-        <v>2027.925</v>
+        <v>2037</v>
       </c>
       <c r="J378" t="n">
-        <v>2880</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="379">
@@ -13659,10 +13659,10 @@
         <v>2784.37412928539</v>
       </c>
       <c r="I379" t="n">
-        <v>2662</v>
+        <v>2657.9</v>
       </c>
       <c r="J379" t="n">
-        <v>2971.25</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="380">
@@ -13691,10 +13691,10 @@
         <v>284.631804396686</v>
       </c>
       <c r="I380" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J380" t="n">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="381">
@@ -13723,10 +13723,10 @@
         <v>246.134084059113</v>
       </c>
       <c r="I381" t="n">
-        <v>212.975</v>
+        <v>207</v>
       </c>
       <c r="J381" t="n">
-        <v>314</v>
+        <v>308.075</v>
       </c>
     </row>
     <row r="382">
@@ -13758,7 +13758,7 @@
         <v>191.975</v>
       </c>
       <c r="J382" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="383">
@@ -13787,10 +13787,10 @@
         <v>58.6550477086225</v>
       </c>
       <c r="I383" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J383" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="384">
@@ -13819,7 +13819,7 @@
         <v>55.0490751269629</v>
       </c>
       <c r="I384" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J384" t="n">
         <v>73</v>
@@ -13883,10 +13883,10 @@
         <v>227.566604904788</v>
       </c>
       <c r="I386" t="n">
-        <v>186</v>
+        <v>185.95</v>
       </c>
       <c r="J386" t="n">
-        <v>260.025</v>
+        <v>263</v>
       </c>
     </row>
     <row r="387">
@@ -13915,10 +13915,10 @@
         <v>224.034185612393</v>
       </c>
       <c r="I387" t="n">
-        <v>187</v>
+        <v>185.975</v>
       </c>
       <c r="J387" t="n">
-        <v>283</v>
+        <v>277.025</v>
       </c>
     </row>
     <row r="388">
@@ -13950,7 +13950,7 @@
         <v>178</v>
       </c>
       <c r="J388" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
